--- a/data/trans_camb/IP21-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP21-Habitat-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>-4,39</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,92</t>
+          <t>-8,77</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,78</t>
+          <t>-12,86</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,29</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-4,66</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>-2,29</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>-4,62</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-3,64</t>
+          <t>-6,8</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 1,19</t>
+          <t>-18,68; 12,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 0,98</t>
+          <t>-22,61; 5,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 0,04</t>
+          <t>-27,56; -3,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 2,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 1,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,65; -2,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 1,0</t>
+          <t>-10,19; 6,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 0,39</t>
+          <t>-12,2; 3,11</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,84; -1,8</t>
+          <t>-15,36; -1,69</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-35,3%</t>
+          <t>-34,16%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-41,83%</t>
+          <t>-68,17%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-60,47%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-10,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-22,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-81,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-22,08%</t>
+          <t>-33,67%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-31,65%</t>
+          <t>-67,97%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-71,21%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-74,11; 41,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-77,45; 40,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-88,01; 17,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-56,4; 64,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-61,4; 51,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-94,92; -36,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-55,88; 27,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-62,3; 11,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-88,5; -39,69</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,76</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,68</t>
+          <t>-2,78</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>-4,66</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,02</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>-3,64</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 2,93</t>
+          <t>-4,55; 1,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 0,03</t>
+          <t>-4,83; 0,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 0,36</t>
+          <t>-5,72; 0,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 5,08</t>
+          <t>-4,3; 2,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 3,15</t>
+          <t>-4,79; 1,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 0,21</t>
+          <t>-7,65; -2,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 3,14</t>
+          <t>-3,64; 1,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 0,78</t>
+          <t>-4,03; 0,39</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,8; -0,23</t>
+          <t>-5,84; -1,8</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-7,82%</t>
+          <t>-35,3%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-53,21%</t>
+          <t>-41,83%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-51,72%</t>
+          <t>-60,47%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>118,88%</t>
+          <t>-10,59%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>39,89%</t>
+          <t>-22,75%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-75,71%</t>
+          <t>-81,91%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>24,77%</t>
+          <t>-22,08%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-29,22%</t>
+          <t>-31,65%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-57,53%</t>
+          <t>-71,21%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-62,18; 79,25</t>
+          <t>-74,11; 41,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-82,7; 16,94</t>
+          <t>-77,45; 40,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-84,31; 16,87</t>
+          <t>-88,01; 17,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-34,21; 666,74</t>
+          <t>-56,4; 64,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-63,17; 445,25</t>
+          <t>-61,4; 51,84</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,92; -36,44</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-27,98; 129,09</t>
+          <t>-55,88; 27,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-66,82; 38,97</t>
+          <t>-62,3; 11,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-81,67; -3,14</t>
+          <t>-88,5; -39,69</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-4,39</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-8,77</t>
+          <t>-3,15</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-12,86</t>
+          <t>-4,93</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,93</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,2</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-2,29</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-4,62</t>
+          <t>-3,04</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-6,8</t>
+          <t>-3,59</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-18,68; 12,56</t>
+          <t>-3,28; 5,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-22,61; 5,81</t>
+          <t>-6,79; -0,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-27,56; -3,3</t>
+          <t>-8,6; -2,71</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,75; 2,48</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,58; 0,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,75; 1,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-10,19; 6,74</t>
+          <t>-2,94; 2,54</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-12,2; 3,11</t>
+          <t>-5,44; -0,88</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-15,36; -1,69</t>
+          <t>-6,05; -1,51</t>
         </is>
       </c>
     </row>
@@ -1386,12 +1386,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-34,16%</t>
+          <t>20,23%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-68,17%</t>
+          <t>-63,9%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -1401,32 +1401,32 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,38%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-60,17%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,25%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-33,67%</t>
+          <t>-0,31%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-67,97%</t>
+          <t>-62,11%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-73,26%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>-48,46; 185,26</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>-92,12; 28,93</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,32; 97,51</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,07; 20,79</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,44; 57,94</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,57; 70,5</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,85; -18,9</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,78; -33,47</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-3,15</t>
+          <t>-2,76</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-4,93</t>
+          <t>-2,68</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-1,09</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-2,93</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-2,2</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-3,04</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-3,59</t>
+          <t>-2,0</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 5,25</t>
+          <t>-4,28; 2,93</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,79; -0,03</t>
+          <t>-6,13; 0,03</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,6; -2,71</t>
+          <t>-6,0; 0,36</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 2,48</t>
+          <t>-0,62; 5,08</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 0,04</t>
+          <t>-1,55; 3,15</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 1,29</t>
+          <t>-3,51; 0,21</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 2,54</t>
+          <t>-1,17; 3,14</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,44; -0,88</t>
+          <t>-3,16; 0,78</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-6,05; -1,51</t>
+          <t>-3,8; -0,23</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>20,23%</t>
+          <t>-7,82%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-63,9%</t>
+          <t>-53,21%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-51,72%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-22,38%</t>
+          <t>118,88%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-60,17%</t>
+          <t>39,89%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-45,25%</t>
+          <t>-75,71%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-0,31%</t>
+          <t>24,77%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-62,11%</t>
+          <t>-29,22%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-73,26%</t>
+          <t>-57,53%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-48,46; 185,26</t>
+          <t>-62,18; 79,25</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-92,12; 28,93</t>
+          <t>-82,7; 16,94</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
+          <t>-84,31; 16,87</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-34,21; 666,74</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-63,17; 445,25</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-70,32; 97,51</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-90,07; 20,79</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-80,44; 57,94</t>
-        </is>
-      </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-48,57; 70,5</t>
+          <t>-27,98; 129,09</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-84,85; -18,9</t>
+          <t>-66,82; 38,97</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-89,78; -33,47</t>
+          <t>-81,67; -3,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP21-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP21-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -685,17 +685,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-18,68; 12,56</t>
+          <t>-19,26; 13,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-22,61; 5,81</t>
+          <t>-22,7; 4,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-27,56; -3,3</t>
+          <t>-29,24; -3,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -715,17 +715,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-10,19; 6,74</t>
+          <t>-10,89; 7,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-12,2; 3,11</t>
+          <t>-13,64; 2,55</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-15,36; -1,69</t>
+          <t>-16,75; -1,73</t>
         </is>
       </c>
     </row>
@@ -821,7 +821,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 417,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 5,46</t>
+          <t>-0,82; 5,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 7,05</t>
+          <t>-0,25; 7,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 3,77</t>
+          <t>-1,85; 3,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 4,28</t>
+          <t>-3,63; 4,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 4,24</t>
+          <t>-3,32; 4,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 1,48</t>
+          <t>-4,94; 1,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 3,72</t>
+          <t>-1,05; 3,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 4,39</t>
+          <t>-0,96; 4,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 1,76</t>
+          <t>-2,36; 2,06</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,32; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-43,55; 1184,69</t>
+          <t>-41,63; 1264,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,35; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-73,41; 346,93</t>
+          <t>-74,67; 312,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-72,86; 308,87</t>
+          <t>-74,23; 331,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-88,14; 150,2</t>
+          <t>-91,06; 121,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-36,71; 294,94</t>
+          <t>-36,66; 280,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-28,38; 320,47</t>
+          <t>-32,83; 294,48</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-68,3; 133,63</t>
+          <t>-67,72; 181,0</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 1,19</t>
+          <t>-4,59; 1,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 0,98</t>
+          <t>-5,11; 0,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 0,04</t>
+          <t>-5,47; -0,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 2,66</t>
+          <t>-4,11; 3,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 1,73</t>
+          <t>-4,72; 1,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,65; -2,19</t>
+          <t>-7,93; -2,03</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 1,0</t>
+          <t>-3,42; 1,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 0,39</t>
+          <t>-3,86; 0,49</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,84; -1,8</t>
+          <t>-5,78; -1,8</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-74,11; 41,89</t>
+          <t>-71,98; 72,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-77,45; 40,86</t>
+          <t>-79,46; 27,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-88,01; 17,04</t>
+          <t>-88,52; 15,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-56,4; 64,74</t>
+          <t>-53,34; 103,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-61,4; 51,84</t>
+          <t>-62,78; 54,27</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-94,92; -36,44</t>
+          <t>-95,95; -37,91</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-55,88; 27,14</t>
+          <t>-52,75; 29,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-62,3; 11,0</t>
+          <t>-59,7; 14,11</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-88,5; -39,69</t>
+          <t>-87,27; -36,48</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 5,25</t>
+          <t>-2,98; 5,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,79; -0,03</t>
+          <t>-6,32; 0,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,6; -2,71</t>
+          <t>-8,91; -2,64</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 2,48</t>
+          <t>-5,34; 2,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 0,04</t>
+          <t>-6,34; 0,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 1,29</t>
+          <t>-5,63; 1,33</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 2,54</t>
+          <t>-2,76; 2,8</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,44; -0,88</t>
+          <t>-5,63; -0,75</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,05; -1,51</t>
+          <t>-6,02; -1,29</t>
         </is>
       </c>
     </row>
@@ -1439,12 +1439,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-48,46; 185,26</t>
+          <t>-45,33; 157,94</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-92,12; 28,93</t>
+          <t>-91,86; 22,14</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1454,32 +1454,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-70,32; 97,51</t>
+          <t>-74,88; 75,2</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-90,07; 20,79</t>
+          <t>-88,25; 26,8</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-80,44; 57,94</t>
+          <t>-80,8; 63,76</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-48,57; 70,5</t>
+          <t>-44,72; 89,69</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-84,85; -18,9</t>
+          <t>-84,5; -17,65</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-89,78; -33,47</t>
+          <t>-90,07; -27,03</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 2,93</t>
+          <t>-4,23; 3,26</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 0,03</t>
+          <t>-5,96; 0,17</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 0,36</t>
+          <t>-5,77; 0,32</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 5,08</t>
+          <t>-0,36; 5,3</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 3,15</t>
+          <t>-1,43; 3,22</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 0,21</t>
+          <t>-3,24; 0,22</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 3,14</t>
+          <t>-1,42; 3,52</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 0,78</t>
+          <t>-3,0; 1,04</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,8; -0,23</t>
+          <t>-4,01; -0,32</t>
         </is>
       </c>
     </row>
@@ -1655,27 +1655,27 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-62,18; 79,25</t>
+          <t>-62,41; 95,88</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-82,7; 16,94</t>
+          <t>-82,88; 10,82</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-84,31; 16,87</t>
+          <t>-82,51; 29,5</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-34,21; 666,74</t>
+          <t>-24,41; 718,11</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-63,17; 445,25</t>
+          <t>-62,7; 386,64</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1685,17 +1685,17 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-27,98; 129,09</t>
+          <t>-33,53; 144,48</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-66,82; 38,97</t>
+          <t>-65,36; 54,28</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-81,67; -3,14</t>
+          <t>-83,6; -3,35</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 1,54</t>
+          <t>-2,14; 1,44</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,52; -0,14</t>
+          <t>-3,57; -0,21</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-4,5; -1,35</t>
+          <t>-4,43; -1,5</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 1,96</t>
+          <t>-1,18; 1,92</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 0,88</t>
+          <t>-2,19; 0,87</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,69; -0,88</t>
+          <t>-3,61; -0,99</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 1,27</t>
+          <t>-1,12; 1,36</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,42; -0,24</t>
+          <t>-2,4; -0,12</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,69; -1,69</t>
+          <t>-3,66; -1,6</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-34,68; 42,21</t>
+          <t>-38,09; 39,37</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-61,94; -2,67</t>
+          <t>-64,32; -3,53</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-80,53; -37,07</t>
+          <t>-79,98; -36,45</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-31,31; 65,78</t>
+          <t>-25,64; 67,99</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-48,44; 30,64</t>
+          <t>-48,62; 29,85</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-79,99; -29,26</t>
+          <t>-80,31; -30,0</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-28,09; 35,77</t>
+          <t>-23,62; 40,1</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-49,87; -5,46</t>
+          <t>-49,93; -3,25</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-76,41; -46,24</t>
+          <t>-77,03; -44,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP21-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP21-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,17 +685,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-19,26; 13,46</t>
+          <t>-19,18; 12,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-22,7; 4,93</t>
+          <t>-25,17; 4,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-29,24; -3,33</t>
+          <t>-31,07; -3,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -715,17 +715,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-10,89; 7,61</t>
+          <t>-10,24; 7,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-13,64; 2,55</t>
+          <t>-12,16; 2,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-16,75; -1,73</t>
+          <t>-16,99; -1,73</t>
         </is>
       </c>
     </row>
@@ -821,7 +821,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 417,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 5,97</t>
+          <t>-1,0; 5,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 7,18</t>
+          <t>-0,2; 6,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 3,78</t>
+          <t>-1,68; 4,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 4,19</t>
+          <t>-3,69; 3,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 4,36</t>
+          <t>-3,65; 3,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 1,67</t>
+          <t>-4,92; 1,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 3,98</t>
+          <t>-1,21; 3,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 4,31</t>
+          <t>-0,66; 4,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 2,06</t>
+          <t>-2,37; 1,85</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-66,32; —</t>
+          <t>-55,02; 1105,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-41,63; 1264,46</t>
+          <t>-35,69; 1203,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-85,35; —</t>
+          <t>-74,82; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-74,67; 312,17</t>
+          <t>-77,0; 248,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-74,23; 331,84</t>
+          <t>-78,04; 230,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-91,06; 121,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-36,66; 280,53</t>
+          <t>-38,42; 302,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-32,83; 294,48</t>
+          <t>-23,59; 359,35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-67,72; 181,0</t>
+          <t>-69,11; 160,42</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 1,43</t>
+          <t>-4,75; 1,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 0,61</t>
+          <t>-4,91; 0,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,47; -0,03</t>
+          <t>-5,9; -0,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 3,15</t>
+          <t>-4,26; 2,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 1,94</t>
+          <t>-4,79; 2,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,93; -2,03</t>
+          <t>-7,78; -2,18</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 1,11</t>
+          <t>-3,43; 1,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 0,49</t>
+          <t>-3,81; 0,51</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,78; -1,8</t>
+          <t>-5,81; -1,85</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-71,98; 72,31</t>
+          <t>-73,73; 47,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-79,46; 27,06</t>
+          <t>-76,08; 36,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-88,52; 15,64</t>
+          <t>-89,23; 12,81</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-53,34; 103,42</t>
+          <t>-56,2; 75,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-62,78; 54,27</t>
+          <t>-63,93; 58,59</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-95,95; -37,91</t>
+          <t>-95,86; -36,16</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-52,75; 29,79</t>
+          <t>-53,36; 32,87</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-59,7; 14,11</t>
+          <t>-59,07; 15,25</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-87,27; -36,48</t>
+          <t>-88,4; -39,07</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 5,03</t>
+          <t>-3,45; 4,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 0,27</t>
+          <t>-6,76; -0,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,91; -2,64</t>
+          <t>-8,47; -2,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 2,16</t>
+          <t>-4,76; 2,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 0,34</t>
+          <t>-6,83; -0,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 1,33</t>
+          <t>-5,8; 1,05</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 2,8</t>
+          <t>-2,61; 2,81</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,63; -0,75</t>
+          <t>-5,5; -0,9</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,02; -1,29</t>
+          <t>-5,95; -1,43</t>
         </is>
       </c>
     </row>
@@ -1439,12 +1439,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-45,33; 157,94</t>
+          <t>-48,01; 164,34</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-91,86; 22,14</t>
+          <t>-91,41; 14,98</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1454,32 +1454,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-74,88; 75,2</t>
+          <t>-72,33; 90,1</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-88,25; 26,8</t>
+          <t>-89,92; 12,9</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-80,8; 63,76</t>
+          <t>-79,51; 70,1</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-44,72; 89,69</t>
+          <t>-41,75; 85,4</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-84,5; -17,65</t>
+          <t>-83,64; -20,83</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-90,07; -27,03</t>
+          <t>-91,25; -30,58</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 3,26</t>
+          <t>-3,95; 3,1</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 0,17</t>
+          <t>-6,04; -0,04</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 0,32</t>
+          <t>-5,74; 0,62</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 5,3</t>
+          <t>-0,41; 4,96</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 3,22</t>
+          <t>-1,75; 3,22</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 0,22</t>
+          <t>-3,46; 0,31</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 3,52</t>
+          <t>-1,37; 3,23</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 1,04</t>
+          <t>-2,94; 0,78</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,01; -0,32</t>
+          <t>-3,85; -0,25</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-62,41; 95,88</t>
+          <t>-57,76; 89,35</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-82,88; 10,82</t>
+          <t>-84,06; 11,45</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-82,51; 29,5</t>
+          <t>-81,84; 38,21</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-24,41; 718,11</t>
+          <t>-31,74; 586,56</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-62,7; 386,64</t>
+          <t>-66,09; 430,15</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-33,53; 144,48</t>
+          <t>-32,66; 130,82</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-65,36; 54,28</t>
+          <t>-66,29; 34,11</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-83,6; -3,35</t>
+          <t>-83,32; -1,49</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 1,44</t>
+          <t>-1,84; 1,68</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,57; -0,21</t>
+          <t>-3,37; -0,25</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-4,43; -1,5</t>
+          <t>-4,59; -1,6</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 1,92</t>
+          <t>-1,29; 2,0</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 0,87</t>
+          <t>-2,22; 0,79</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,61; -0,99</t>
+          <t>-3,68; -1,0</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 1,36</t>
+          <t>-1,15; 1,28</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,4; -0,12</t>
+          <t>-2,37; -0,17</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,66; -1,6</t>
+          <t>-3,78; -1,65</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-38,09; 39,37</t>
+          <t>-34,64; 44,41</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-64,32; -3,53</t>
+          <t>-61,7; -5,55</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-79,98; -36,45</t>
+          <t>-81,55; -38,88</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-25,64; 67,99</t>
+          <t>-29,59; 67,38</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-48,62; 29,85</t>
+          <t>-49,45; 29,07</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-80,31; -30,0</t>
+          <t>-78,26; -30,07</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-23,62; 40,1</t>
+          <t>-24,49; 35,85</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-49,93; -3,25</t>
+          <t>-49,38; -4,02</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-77,03; -44,2</t>
+          <t>-77,01; -46,03</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP21-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP21-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,39</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-8,77</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-12,86</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-2,29</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-4,62</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-6,8</t>
+          <t>-1,14</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-19,18; 12,89</t>
+          <t>-3,02; 3,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-25,17; 4,42</t>
+          <t>-3,1; 3,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-31,07; -3,26</t>
+          <t>-4,23; 1,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,01; 4,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,84; 5,1</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,87; 1,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-10,24; 7,49</t>
+          <t>-1,99; 3,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-12,16; 2,92</t>
+          <t>-1,79; 3,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-16,99; -1,73</t>
+          <t>-3,62; 0,78</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-34,16%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-68,17%</t>
+          <t>6,23%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-38,94%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,08%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,48%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,39%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-33,67%</t>
+          <t>20,02%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-67,97%</t>
+          <t>21,43%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-36,55%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,98; 277,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,53; 270,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,17; 165,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,25; 272,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,02; 279,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,1; 142,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,7; 156,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,56; 176,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,78; 42,25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,09</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>-4,67</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>-2,72</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>-3,61</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 5,86</t>
+          <t>-4,3; 2,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 6,92</t>
+          <t>-4,79; 1,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 4,01</t>
+          <t>-7,62; -2,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 3,88</t>
+          <t>-4,55; 1,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 3,8</t>
+          <t>-4,83; 0,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 1,29</t>
+          <t>-5,66; 0,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 3,65</t>
+          <t>-3,64; 1,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 4,51</t>
+          <t>-4,03; 0,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 1,85</t>
+          <t>-5,86; -1,74</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>136,09%</t>
+          <t>-10,59%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>197,9%</t>
+          <t>-22,75%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>59,0%</t>
+          <t>-82,04%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>-35,3%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>-41,83%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-42,31%</t>
+          <t>-59,21%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>50,14%</t>
+          <t>-22,08%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>71,95%</t>
+          <t>-31,65%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-7,77%</t>
+          <t>-70,52%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-55,02; 1105,72</t>
+          <t>-56,4; 64,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-35,69; 1203,43</t>
+          <t>-61,4; 51,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-74,82; —</t>
+          <t>-94,99; -35,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-77,0; 248,9</t>
+          <t>-74,11; 41,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-78,04; 230,56</t>
+          <t>-77,45; 40,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,63; 21,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-38,42; 302,28</t>
+          <t>-55,88; 27,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-23,59; 359,35</t>
+          <t>-62,3; 11,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-69,11; 160,42</t>
+          <t>-87,84; -37,57</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,92</t>
+          <t>-2,93</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,78</t>
+          <t>-2,47</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,29</t>
+          <t>-3,15</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-4,66</t>
+          <t>-4,93</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>-3,04</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-3,64</t>
+          <t>-3,69</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 1,12</t>
+          <t>-4,75; 2,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 0,86</t>
+          <t>-6,58; 0,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,9; -0,21</t>
+          <t>-5,97; 0,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 2,93</t>
+          <t>-3,28; 5,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 2,04</t>
+          <t>-6,79; -0,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,78; -2,18</t>
+          <t>-8,6; -2,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 1,11</t>
+          <t>-2,94; 2,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 0,51</t>
+          <t>-5,44; -0,88</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,81; -1,85</t>
+          <t>-6,13; -1,68</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-35,3%</t>
+          <t>-22,38%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-41,83%</t>
+          <t>-60,17%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-60,47%</t>
+          <t>-50,72%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-10,59%</t>
+          <t>20,23%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-22,75%</t>
+          <t>-63,9%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-81,91%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-22,08%</t>
+          <t>-0,31%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-31,65%</t>
+          <t>-62,11%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-71,21%</t>
+          <t>-75,27%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-73,73; 47,58</t>
+          <t>-70,32; 97,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-76,08; 36,53</t>
+          <t>-90,07; 20,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-89,23; 12,81</t>
+          <t>-84,89; 42,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-56,2; 75,97</t>
+          <t>-48,46; 185,26</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-63,93; 58,59</t>
+          <t>-92,12; 28,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-95,86; -36,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-53,36; 32,87</t>
+          <t>-48,57; 70,5</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-59,07; 15,25</t>
+          <t>-84,85; -18,9</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-88,4; -39,07</t>
+          <t>-90,84; -38,33</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-3,15</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-4,93</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,09</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,93</t>
+          <t>-2,76</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,2</t>
+          <t>-2,67</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-3,04</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-3,59</t>
+          <t>-1,96</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 4,88</t>
+          <t>-0,62; 5,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,76; -0,01</t>
+          <t>-1,55; 3,15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,47; -2,58</t>
+          <t>-3,5; 0,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 2,33</t>
+          <t>-4,28; 2,93</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,83; -0,04</t>
+          <t>-6,13; 0,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 1,05</t>
+          <t>-5,95; 0,45</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 2,81</t>
+          <t>-1,17; 3,14</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,5; -0,9</t>
+          <t>-3,16; 0,78</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,95; -1,43</t>
+          <t>-3,78; -0,18</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>20,23%</t>
+          <t>118,88%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-63,9%</t>
+          <t>39,89%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-75,36%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-22,38%</t>
+          <t>-7,82%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-60,17%</t>
+          <t>-53,21%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-45,25%</t>
+          <t>-51,43%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-0,31%</t>
+          <t>24,77%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-62,11%</t>
+          <t>-29,22%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-73,26%</t>
+          <t>-56,35%</t>
         </is>
       </c>
     </row>
@@ -1439,12 +1439,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-48,01; 164,34</t>
+          <t>-34,21; 666,74</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-91,41; 14,98</t>
+          <t>-63,17; 445,25</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1454,39 +1454,39 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-72,33; 90,1</t>
+          <t>-62,18; 79,25</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-89,92; 12,9</t>
+          <t>-82,7; 16,94</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-79,51; 70,1</t>
+          <t>-84,12; 17,92</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-41,75; 85,4</t>
+          <t>-27,98; 129,09</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-83,64; -20,83</t>
+          <t>-66,82; 38,97</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-91,25; -30,58</t>
+          <t>-81,36; 1,07</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-2,76</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-2,68</t>
+          <t>-2,35</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>-1,81</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>-2,95</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-1,02</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>-2,65</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 3,1</t>
+          <t>-1,41; 1,96</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,04; -0,04</t>
+          <t>-2,23; 0,88</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 0,62</t>
+          <t>-3,68; -0,88</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 4,96</t>
+          <t>-1,92; 1,54</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 3,22</t>
+          <t>-3,52; -0,14</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 0,31</t>
+          <t>-4,49; -1,33</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 3,23</t>
+          <t>-1,34; 1,27</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 0,78</t>
+          <t>-2,42; -0,24</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,85; -0,25</t>
+          <t>-3,7; -1,7</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-7,82%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-53,21%</t>
+          <t>-19,09%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-51,72%</t>
+          <t>-62,86%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>118,88%</t>
+          <t>-3,43%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>39,89%</t>
+          <t>-39,43%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-75,71%</t>
+          <t>-64,35%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>24,77%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-29,22%</t>
+          <t>-30,6%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-57,53%</t>
+          <t>-63,59%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-57,76; 89,35</t>
+          <t>-31,31; 65,78</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-84,06; 11,45</t>
+          <t>-48,44; 30,64</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-81,84; 38,21</t>
+          <t>-80,35; -29,27</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-31,74; 586,56</t>
+          <t>-34,68; 42,21</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-66,09; 430,15</t>
+          <t>-61,94; -2,67</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-80,75; -36,7</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-32,66; 130,82</t>
+          <t>-28,09; 35,77</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-66,29; 34,11</t>
+          <t>-49,87; -5,46</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-83,32; -1,49</t>
+          <t>-76,48; -46,52</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-0,16</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-1,81</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-2,97</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>0,3</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-0,71</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-2,32</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-1,28</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-2,65</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-1,84; 1,68</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-3,37; -0,25</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-4,59; -1,6</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-1,29; 2,0</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-2,22; 0,79</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-3,68; -1,0</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-1,15; 1,28</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-2,37; -0,17</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-3,78; -1,65</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-3,43%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-39,43%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-64,65%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>8,14%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-19,09%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-62,28%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>1,57%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-30,6%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-63,56%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-34,64; 44,41</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-61,7; -5,55</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-81,55; -38,88</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-29,59; 67,38</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-49,45; 29,07</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-78,26; -30,07</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-24,49; 35,85</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-49,38; -4,02</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-77,01; -46,03</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
